--- a/bus_202/data/group_3_3.xlsx
+++ b/bus_202/data/group_3_3.xlsx
@@ -1,30 +1,256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgrah\Box\Justin\Teaching\2025 Winter BUS 202\Group Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8836ABF-FCF7-46FC-9064-6F03FE8D72AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D290C705-9BBD-4A2B-92B7-08832F6F4CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$60</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>1st appearance</t>
+  </si>
+  <si>
+    <t>Scottie Scheffler</t>
+  </si>
+  <si>
+    <t>Rickie Fowler</t>
+  </si>
+  <si>
+    <t>Jordan Speith</t>
+  </si>
+  <si>
+    <t>Colin Morikawa</t>
+  </si>
+  <si>
+    <t>Justin Thomas</t>
+  </si>
+  <si>
+    <t>Jason Day</t>
+  </si>
+  <si>
+    <t>John Rahm</t>
+  </si>
+  <si>
+    <t>Xander Schauffele</t>
+  </si>
+  <si>
+    <t>Rory Mcllroy</t>
+  </si>
+  <si>
+    <t>Ludvig Aberg</t>
+  </si>
+  <si>
+    <t>Hideki Matsuyama</t>
+  </si>
+  <si>
+    <t>Victor Hovland</t>
+  </si>
+  <si>
+    <t>Wyndham Clark</t>
+  </si>
+  <si>
+    <t>Keegan Bradey</t>
+  </si>
+  <si>
+    <t>Patrick Cantlay</t>
+  </si>
+  <si>
+    <t>Shane Lowry</t>
+  </si>
+  <si>
+    <t>Bryson Dechambeau</t>
+  </si>
+  <si>
+    <t>Min Woo Lee</t>
+  </si>
+  <si>
+    <t>Sahith Theegala</t>
+  </si>
+  <si>
+    <t>Nick Taylor</t>
+  </si>
+  <si>
+    <t>Tom Kim</t>
+  </si>
+  <si>
+    <t>Tony Finau</t>
+  </si>
+  <si>
+    <t>Sam Burns</t>
+  </si>
+  <si>
+    <t>Justin Rose</t>
+  </si>
+  <si>
+    <t>Gary Woodland</t>
+  </si>
+  <si>
+    <t>Brian Harman</t>
+  </si>
+  <si>
+    <t>Will Zalatoris</t>
+  </si>
+  <si>
+    <t>Matt Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Max Homa</t>
+  </si>
+  <si>
+    <t>Patrick Reed</t>
+  </si>
+  <si>
+    <t>Cameron Davis</t>
+  </si>
+  <si>
+    <t>Adam Scott</t>
+  </si>
+  <si>
+    <t>Si Woo Kim</t>
+  </si>
+  <si>
+    <t>Kurt Kitayama</t>
+  </si>
+  <si>
+    <t>Phil Mickelson</t>
+  </si>
+  <si>
+    <t>Brooks Koepka</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Dustin Johnson</t>
+  </si>
+  <si>
+    <t>Fred Couples</t>
+  </si>
+  <si>
+    <t>Harris English</t>
+  </si>
+  <si>
+    <t>Tommy Fleetwood</t>
+  </si>
+  <si>
+    <t>Cameron Smith</t>
+  </si>
+  <si>
+    <t>Tyrrel Hatton</t>
+  </si>
+  <si>
+    <t>Cameron Young</t>
+  </si>
+  <si>
+    <t>Adam Schenk</t>
+  </si>
+  <si>
+    <t>Matthieu Pavon</t>
+  </si>
+  <si>
+    <t>Sepp Straka</t>
+  </si>
+  <si>
+    <t>Taylor Moore</t>
+  </si>
+  <si>
+    <t>Lucas Glover</t>
+  </si>
+  <si>
+    <t>Joaquin Niemann</t>
+  </si>
+  <si>
+    <t>J.T. Poston</t>
+  </si>
+  <si>
+    <t>Camilo Villegas</t>
+  </si>
+  <si>
+    <t>Akshay Bhatia</t>
+  </si>
+  <si>
+    <t>Russell Henley</t>
+  </si>
+  <si>
+    <t>Luke List</t>
+  </si>
+  <si>
+    <t>Corey Conners</t>
+  </si>
+  <si>
+    <t>Ryan Fox</t>
+  </si>
+  <si>
+    <t>Grayson Murray</t>
+  </si>
+  <si>
+    <t>Adam Hadwin</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>appearances</t>
+  </si>
+  <si>
+    <t>2024 finish</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>age sq</t>
+  </si>
+  <si>
+    <t>log age</t>
+  </si>
+  <si>
+    <t>log age sq</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -79,39 +305,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -144,9 +370,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -179,6 +422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,13 +500,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -255,6 +508,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,24 +579,1671 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EB0A85-AC66-4388-8548-5F7231CE72B6}">
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>784</v>
+      </c>
+      <c r="F2">
+        <f>LN(D2)</f>
+        <v>3.3322045101752038</v>
+      </c>
+      <c r="G2">
+        <v>11.10358689763197</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>1296</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F60" si="0">LN(D3)</f>
+        <v>3.5835189384561099</v>
+      </c>
+      <c r="G3">
+        <v>12.841607982273604</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>961</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3.4339872044851463</v>
+      </c>
+      <c r="G4">
+        <v>11.79226812056771</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>784</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.3322045101752038</v>
+      </c>
+      <c r="G5">
+        <v>11.10358689763197</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>961</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.4339872044851463</v>
+      </c>
+      <c r="G6">
+        <v>11.79226812056771</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>1369</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="G7">
+        <v>13.038728171854922</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>900</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="G8">
+        <v>11.568143629025503</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>961</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3.4339872044851463</v>
+      </c>
+      <c r="G9">
+        <v>11.79226812056771</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>1225</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.5553480614894135</v>
+      </c>
+      <c r="G10">
+        <v>12.640499838336531</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>625</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="G11">
+        <v>10.361161575920939</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>1089</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3.4965075614664802</v>
+      </c>
+      <c r="G12">
+        <v>12.225565127392272</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>676</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3.2580965380214821</v>
+      </c>
+      <c r="G13">
+        <v>10.615193051067568</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>841</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3.3672958299864741</v>
+      </c>
+      <c r="G14">
+        <v>11.338681206644297</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>1369</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="G15">
+        <v>13.038728171854922</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>961</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3.4339872044851463</v>
+      </c>
+      <c r="G16">
+        <v>11.79226812056771</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>1296</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3.5835189384561099</v>
+      </c>
+      <c r="G17">
+        <v>12.841607982273604</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>900</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="G18">
+        <v>11.568143629025503</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>576</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3.1780538303479458</v>
+      </c>
+      <c r="G19">
+        <v>10.100026148589249</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>676</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3.2580965380214821</v>
+      </c>
+      <c r="G20">
+        <v>10.615193051067568</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>1296</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3.5835189384561099</v>
+      </c>
+      <c r="G21">
+        <v>12.841607982273604</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>441</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>3.044522437723423</v>
+      </c>
+      <c r="G22">
+        <v>9.2691168738013747</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>1225</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3.5553480614894135</v>
+      </c>
+      <c r="G23">
+        <v>12.640499838336531</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>729</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>3.2958368660043291</v>
+      </c>
+      <c r="G24">
+        <v>10.862540647313239</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <v>1849</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3.7612001156935624</v>
+      </c>
+      <c r="G25">
+        <v>14.146626310293268</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>1521</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3.6635616461296463</v>
+      </c>
+      <c r="G26">
+        <v>13.421683934992164</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>1369</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="G27">
+        <v>13.038728171854922</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>729</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>3.2958368660043291</v>
+      </c>
+      <c r="G28">
+        <v>10.862540647313239</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>841</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3.3672958299864741</v>
+      </c>
+      <c r="G29">
+        <v>11.338681206644297</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>1089</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>3.4965075614664802</v>
+      </c>
+      <c r="G30">
+        <v>12.225565127392272</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>1156</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>3.5263605246161616</v>
+      </c>
+      <c r="G31">
+        <v>12.43521854957117</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>784</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>3.3322045101752038</v>
+      </c>
+      <c r="G32">
+        <v>11.10358689763197</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>1849</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>3.7612001156935624</v>
+      </c>
+      <c r="G33">
+        <v>14.146626310293268</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>784</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>3.3322045101752038</v>
+      </c>
+      <c r="G34">
+        <v>11.10358689763197</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>31</v>
+      </c>
+      <c r="E35">
+        <v>961</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>3.4339872044851463</v>
+      </c>
+      <c r="G35">
+        <v>11.79226812056771</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>2916</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>3.9889840465642745</v>
+      </c>
+      <c r="G36">
+        <v>15.911993723744294</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>33</v>
+      </c>
+      <c r="E37">
+        <v>1089</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>3.4965075614664802</v>
+      </c>
+      <c r="G37">
+        <v>12.225565127392272</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>49</v>
+      </c>
+      <c r="E38">
+        <v>2401</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>3.8918202981106265</v>
+      </c>
+      <c r="G38">
+        <v>15.146265232785886</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>1521</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>3.6635616461296463</v>
+      </c>
+      <c r="G39">
+        <v>13.421683934992164</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>64</v>
+      </c>
+      <c r="E40">
+        <v>4096</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>4.1588830833596715</v>
+      </c>
+      <c r="G40">
+        <v>17.296308501055247</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>34</v>
+      </c>
+      <c r="E41">
+        <v>1156</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>3.5263605246161616</v>
+      </c>
+      <c r="G41">
+        <v>12.43521854957117</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+      <c r="E42">
+        <v>1024</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>3.4657359027997265</v>
+      </c>
+      <c r="G42">
+        <v>12.011325347955035</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>900</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="G43">
+        <v>11.568143629025503</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+      <c r="E44">
+        <v>1024</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>3.4657359027997265</v>
+      </c>
+      <c r="G44">
+        <v>12.011325347955035</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>26</v>
+      </c>
+      <c r="E45">
+        <v>676</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>3.2580965380214821</v>
+      </c>
+      <c r="G45">
+        <v>10.615193051067568</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>31</v>
+      </c>
+      <c r="E46">
+        <v>961</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>3.4339872044851463</v>
+      </c>
+      <c r="G46">
+        <v>11.79226812056771</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>900</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="G47">
+        <v>11.568143629025503</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>900</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="G48">
+        <v>11.568143629025503</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>30</v>
+      </c>
+      <c r="E49">
+        <v>900</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="G49">
+        <v>11.568143629025503</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>1936</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>3.784189633918261</v>
+      </c>
+      <c r="G50">
+        <v>14.320091185454423</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <v>625</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="G51">
+        <v>10.361161575920939</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>31</v>
+      </c>
+      <c r="E52">
+        <v>961</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>3.4339872044851463</v>
+      </c>
+      <c r="G52">
+        <v>11.79226812056771</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>41</v>
+      </c>
+      <c r="E53">
+        <v>1681</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>3.713572066704308</v>
+      </c>
+      <c r="G53">
+        <v>13.790617494606504</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>21</v>
+      </c>
+      <c r="E54">
+        <v>441</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>3.044522437723423</v>
+      </c>
+      <c r="G54">
+        <v>9.2691168738013747</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>34</v>
+      </c>
+      <c r="E55">
+        <v>1156</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>3.5263605246161616</v>
+      </c>
+      <c r="G55">
+        <v>12.43521854957117</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <v>1600</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>3.6888794541139363</v>
+      </c>
+      <c r="G56">
+        <v>13.607831626983932</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>38</v>
+      </c>
+      <c r="D57">
+        <v>33</v>
+      </c>
+      <c r="E57">
+        <v>1089</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>3.4965075614664802</v>
+      </c>
+      <c r="G57">
+        <v>12.225565127392272</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>38</v>
+      </c>
+      <c r="E58">
+        <v>1444</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>3.6375861597263857</v>
+      </c>
+      <c r="G58">
+        <v>13.232033069432955</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>961</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>3.4339872044851463</v>
+      </c>
+      <c r="G59">
+        <v>11.79226812056771</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>53</v>
+      </c>
+      <c r="D60">
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>1369</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="G60">
+        <v>13.038728171854922</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H60" xr:uid="{F7EB0A85-AC66-4388-8548-5F7231CE72B6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>